--- a/Jogos_do_Dia/2023-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>8.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="M2" t="n">
         <v>1.3</v>
@@ -718,10 +718,10 @@
         <v>4.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T2" t="n">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -787,10 +787,10 @@
         <v>1.23</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>7.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="K3" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="L3" t="n">
-        <v>7.75</v>
+        <v>6.8</v>
       </c>
       <c r="M3" t="n">
         <v>1.33</v>
@@ -857,10 +857,10 @@
         <v>3.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -902,34 +902,34 @@
         <v>3.58</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
@@ -1386,13 +1386,13 @@
         <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1482,10 +1482,10 @@
         <v>1.26</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -1525,13 +1525,13 @@
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1555,7 +1555,7 @@
         <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U8" t="n">
         <v>1.91</v>
@@ -1597,16 +1597,16 @@
         <v>3.66</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AL8" t="n">
         <v>1.98</v>
@@ -1615,16 +1615,16 @@
         <v>1.83</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="9">
@@ -1664,13 +1664,13 @@
         <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
         <v>2.25</v>
@@ -1803,13 +1803,13 @@
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L10" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.44</v>
@@ -1830,10 +1830,10 @@
         <v>2.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -1942,13 +1942,13 @@
         <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.2</v>
+        <v>2.74</v>
       </c>
       <c r="K11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.44</v>
@@ -1969,10 +1969,10 @@
         <v>3.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2081,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="M12" t="n">
         <v>1.29</v>
@@ -2108,10 +2108,10 @@
         <v>4.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T12" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,35 +2198,35 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Birmingham City</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Leicester City</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="H13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>5.05</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>5.2</v>
+        <v>1.59</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2238,7 +2238,7 @@
         <v>1.05</v>
       </c>
       <c r="P13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
         <v>1.24</v>
@@ -2247,85 +2247,85 @@
         <v>4.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
-        <v>1.13</v>
+        <v>2.35</v>
       </c>
       <c r="X13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.4</v>
+        <v>1.14</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.83</v>
+        <v>2.69</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.51</v>
+        <v>5.6</v>
       </c>
       <c r="AF13" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>3.16</v>
+        <v>1.21</v>
       </c>
       <c r="AH13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>1.34</v>
       </c>
-      <c r="AI13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1.65</v>
-      </c>
       <c r="AK13" t="n">
-        <v>2.13</v>
+        <v>3.1</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.69</v>
+        <v>2.25</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.81</v>
+        <v>2</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.39</v>
+        <v>1.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.86</v>
+        <v>2.65</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,35 +2337,35 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Birmingham City</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Leicester City</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I14" t="n">
         <v>5.5</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>1.51</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="L14" t="n">
-        <v>1.57</v>
+        <v>6.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.33</v>
@@ -2377,7 +2377,7 @@
         <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
         <v>1.24</v>
@@ -2386,79 +2386,79 @@
         <v>4.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W14" t="n">
-        <v>2.35</v>
+        <v>1.13</v>
       </c>
       <c r="X14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.14</v>
+        <v>2.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.9</v>
+        <v>2.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.5</v>
+        <v>0.38</v>
       </c>
       <c r="AB14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC14" t="n">
         <v>1.26</v>
       </c>
-      <c r="AC14" t="n">
-        <v>1.43</v>
-      </c>
       <c r="AD14" t="n">
-        <v>2.69</v>
+        <v>2.83</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.6</v>
+        <v>1.51</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.21</v>
+        <v>3.16</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.6</v>
+        <v>2.88</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="AK14" t="n">
-        <v>3.1</v>
+        <v>2.13</v>
       </c>
       <c r="AL14" t="n">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="AM14" t="n">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>2.81</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.75</v>
+        <v>1.39</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.65</v>
+        <v>3.86</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
@@ -2498,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T15" t="n">
         <v>1.75</v>

--- a/Jogos_do_Dia/2023-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-18_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>1.8</v>
       </c>
       <c r="J2" t="n">
-        <v>8.9</v>
+        <v>8.27</v>
       </c>
       <c r="K2" t="n">
-        <v>5.2</v>
+        <v>2.82</v>
       </c>
       <c r="L2" t="n">
-        <v>1.27</v>
+        <v>1.57</v>
       </c>
       <c r="M2" t="n">
         <v>1.3</v>
@@ -718,10 +718,10 @@
         <v>4.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -833,10 +833,10 @@
         <v>1.28</v>
       </c>
       <c r="K3" t="n">
-        <v>4.45</v>
+        <v>5.42</v>
       </c>
       <c r="L3" t="n">
-        <v>6.8</v>
+        <v>6.98</v>
       </c>
       <c r="M3" t="n">
         <v>1.33</v>
@@ -857,10 +857,10 @@
         <v>3.93</v>
       </c>
       <c r="S3" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -1386,13 +1386,13 @@
         <v>1.83</v>
       </c>
       <c r="J7" t="n">
-        <v>8.550000000000001</v>
+        <v>5.91</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>5.33</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.36</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
         <v>2.2</v>
@@ -1525,13 +1525,13 @@
         <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>6.82</v>
       </c>
       <c r="L8" t="n">
-        <v>4.9</v>
+        <v>4.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1664,13 +1664,13 @@
         <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>6.76</v>
       </c>
       <c r="L9" t="n">
-        <v>6.9</v>
+        <v>5.48</v>
       </c>
       <c r="M9" t="n">
         <v>1.44</v>
@@ -1691,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
         <v>2.25</v>
@@ -1803,13 +1803,13 @@
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5.43</v>
       </c>
       <c r="M10" t="n">
         <v>1.44</v>
@@ -1830,10 +1830,10 @@
         <v>2.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -1942,13 +1942,13 @@
         <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>2.74</v>
+        <v>2.54</v>
       </c>
       <c r="K11" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.35</v>
+        <v>1.71</v>
       </c>
       <c r="M11" t="n">
         <v>1.44</v>
@@ -1969,10 +1969,10 @@
         <v>3.2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
         <v>1.8</v>
@@ -2081,13 +2081,13 @@
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>4.54</v>
       </c>
       <c r="L12" t="n">
-        <v>8.550000000000001</v>
+        <v>5.28</v>
       </c>
       <c r="M12" t="n">
         <v>1.29</v>
@@ -2108,10 +2108,10 @@
         <v>4.9</v>
       </c>
       <c r="S12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="U12" t="n">
         <v>1.95</v>
@@ -2220,13 +2220,13 @@
         <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>5.05</v>
+        <v>5.35</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>4.17</v>
       </c>
       <c r="L13" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="M13" t="n">
         <v>1.33</v>
@@ -2247,10 +2247,10 @@
         <v>4.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2359,13 +2359,13 @@
         <v>5.5</v>
       </c>
       <c r="J14" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>4.63</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="M14" t="n">
         <v>1.33</v>
@@ -2386,10 +2386,10 @@
         <v>4.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="T14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2498,13 +2498,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.38</v>
+        <v>2.17</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.49</v>
       </c>
       <c r="L15" t="n">
-        <v>2.67</v>
+        <v>3.31</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T15" t="n">
         <v>1.75</v>
